--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -678,10 +690,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -725,28 +737,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -771,28 +783,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -927,28 +939,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -973,28 +985,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1861,10 +1873,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1908,28 +1920,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1954,28 +1966,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2265,10 +2277,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2312,28 +2324,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2358,28 +2370,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2467,10 +2479,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2514,28 +2526,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2560,28 +2572,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2640,10 +2652,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2687,28 +2699,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2733,28 +2745,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2813,10 +2825,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2860,28 +2872,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2906,28 +2918,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2986,10 +2998,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3033,28 +3045,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3079,28 +3091,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3159,10 +3171,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3206,28 +3218,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3252,28 +3264,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3332,10 +3344,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3379,28 +3391,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3425,28 +3437,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3563,10 +3575,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3610,28 +3622,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3656,28 +3668,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3765,10 +3777,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3812,28 +3824,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3858,28 +3870,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3967,10 +3979,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4014,28 +4026,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4060,28 +4072,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4140,10 +4152,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4187,28 +4199,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4233,28 +4245,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4342,10 +4354,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4389,28 +4401,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4435,28 +4447,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4573,10 +4585,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4620,28 +4632,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4666,28 +4678,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4746,10 +4758,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4793,28 +4805,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4839,28 +4851,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4919,10 +4931,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4966,28 +4978,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5012,28 +5024,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5121,10 +5133,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5168,28 +5180,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5214,28 +5226,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5323,10 +5335,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5370,28 +5382,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5416,28 +5428,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5496,10 +5508,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5543,28 +5555,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5589,28 +5601,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6102,10 +6114,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6149,28 +6161,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6195,28 +6207,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6287,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6322,28 +6334,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6380,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6448,10 +6460,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6495,28 +6507,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6541,28 +6553,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6650,10 +6662,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6697,28 +6709,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6743,28 +6755,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6823,10 +6835,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6870,28 +6882,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6916,28 +6928,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7025,10 +7037,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7072,28 +7084,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7118,28 +7130,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7198,10 +7210,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7245,28 +7257,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7291,28 +7303,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7400,10 +7412,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7447,28 +7459,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7493,28 +7505,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7573,10 +7585,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7620,28 +7632,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7666,28 +7678,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7746,10 +7758,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7793,28 +7805,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7839,28 +7851,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7919,10 +7931,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7966,28 +7978,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8012,28 +8024,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8121,10 +8133,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8168,28 +8180,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8214,28 +8226,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8294,10 +8306,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8341,28 +8353,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8387,28 +8399,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8467,10 +8479,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8514,28 +8526,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8560,28 +8572,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8698,10 +8710,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8745,28 +8757,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8791,28 +8803,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8900,10 +8912,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8947,28 +8959,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8993,28 +9005,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9073,10 +9085,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9120,28 +9132,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9166,28 +9178,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9246,10 +9258,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9293,28 +9305,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9339,28 +9351,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9448,10 +9460,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9495,28 +9507,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9541,28 +9553,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9621,10 +9633,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9668,28 +9680,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9714,28 +9726,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9852,10 +9864,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9899,28 +9911,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9945,28 +9957,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10083,10 +10095,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10130,28 +10142,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10176,28 +10188,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10285,10 +10297,10 @@
       <c r="I352">
         <f>((C352-C351)^2+(D352- D351)^2)^.5</f>
       </c>
-      <c r="J352" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K352" s="2" t="s">
+      <c r="J352" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K352" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L352" t="n">
@@ -10332,28 +10344,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="2">
+      <c r="A354" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C354" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D354" t="s" s="2">
+      <c r="C354" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D354" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10378,28 +10390,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C356" t="s" s="2">
+      <c r="C356" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D356" t="s" s="2">
+      <c r="D356" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I356" t="s" s="2">
+      <c r="I356" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10458,10 +10470,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10505,28 +10517,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10551,28 +10563,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10631,10 +10643,10 @@
       <c r="I364">
         <f>((C364-C363)^2+(D364- D363)^2)^.5</f>
       </c>
-      <c r="J364" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K364" s="2" t="s">
+      <c r="J364" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K364" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L364" t="n">
@@ -10678,28 +10690,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="2">
+      <c r="A366" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C366" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D366" t="s" s="2">
+      <c r="C366" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10724,28 +10736,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C368" t="s" s="2">
+      <c r="C368" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D368" t="s" s="2">
+      <c r="D368" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I368" t="s" s="2">
+      <c r="I368" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10804,10 +10816,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="2" t="s">
+      <c r="J370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10851,28 +10863,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="2">
+      <c r="A372" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="2">
+      <c r="C372" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10897,28 +10909,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="2">
+      <c r="C374" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="2">
+      <c r="D374" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="2">
+      <c r="I374" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10977,10 +10989,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11024,28 +11036,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="2">
+      <c r="A378" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="2">
+      <c r="C378" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11070,28 +11082,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="2">
+      <c r="C380" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="2">
+      <c r="D380" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="2">
+      <c r="I380" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11179,10 +11191,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11226,28 +11238,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11272,28 +11284,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11410,10 +11422,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="2" t="s">
+      <c r="J391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">
@@ -11457,28 +11469,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="s" s="2">
+      <c r="A393" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C393" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D393" t="s" s="2">
+      <c r="C393" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D393" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11503,28 +11515,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="B395" t="s" s="2">
+      <c r="B395" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C395" t="s" s="2">
+      <c r="C395" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D395" t="s" s="2">
+      <c r="D395" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E395" t="s" s="2">
+      <c r="E395" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F395" t="s" s="2">
+      <c r="F395" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G395" t="s" s="2">
+      <c r="G395" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H395" t="s" s="2">
+      <c r="H395" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I395" t="s" s="2">
+      <c r="I395" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11583,10 +11595,10 @@
       <c r="I397">
         <f>((C397-C396)^2+(D397- D396)^2)^.5</f>
       </c>
-      <c r="J397" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K397" s="2" t="s">
+      <c r="J397" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K397" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L397" t="n">
@@ -11630,28 +11642,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="s" s="2">
+      <c r="A399" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C399" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D399" t="s" s="2">
+      <c r="C399" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D399" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11676,28 +11688,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C401" t="s" s="2">
+      <c r="C401" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D401" t="s" s="2">
+      <c r="D401" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I401" t="s" s="2">
+      <c r="I401" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11814,10 +11826,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="2" t="s">
+      <c r="J405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11861,28 +11873,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="2">
+      <c r="A407" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="2">
+      <c r="C407" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11907,28 +11919,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="2">
+      <c r="C409" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="2">
+      <c r="D409" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="2">
+      <c r="I409" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11987,10 +11999,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="2" t="s">
+      <c r="J411" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
